--- a/tests/02_mnist_cnn/runs.xlsx
+++ b/tests/02_mnist_cnn/runs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="23">
   <si>
     <t>opt</t>
   </si>
@@ -84,14 +84,14 @@
     <t>runs</t>
   </si>
   <si>
-    <t>Doesn't work</t>
+    <t>skip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +115,11 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="MathJax_Main"/>
     </font>
   </fonts>
   <fills count="3">
@@ -143,11 +148,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -450,19 +456,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,545 +479,564 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>5</v>
       </c>
       <c r="B32" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>6</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>7</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>8</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>9</v>
       </c>
       <c r="B36" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>2</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>6</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>7</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>8</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>9</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>2</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>4</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>5</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>6</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>7</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" t="s">
         <v>8</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" t="s">
         <v>9</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>2</v>
-      </c>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:14" ht="16.5">
       <c r="B51" t="s">
         <v>16</v>
       </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" t="s">
         <v>4</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="2">
-        <v>5</v>
-      </c>
-      <c r="D52" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="4"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" t="s">
         <v>6</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" t="s">
         <v>7</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" t="s">
         <v>8</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" t="s">
         <v>9</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="2">
-        <v>5</v>
-      </c>
-      <c r="D57" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="4"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -1019,7 +1044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -1027,7 +1052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1035,7 +1060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -1043,7 +1068,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1051,7 +1076,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -1059,7 +1084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1067,7 +1092,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -1075,7 +1100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -1083,7 +1108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1091,7 +1116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -1099,7 +1124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -1107,7 +1132,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -1115,7 +1140,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -1123,7 +1148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -1131,7 +1156,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -1147,7 +1172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -1155,7 +1180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -1163,7 +1188,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -1171,7 +1196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -1179,7 +1204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -1187,7 +1212,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -1195,7 +1220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -1203,7 +1228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -1211,7 +1236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -1219,7 +1244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -1227,7 +1252,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -1247,7 +1272,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1259,7 +1284,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/02_mnist_cnn/runs.xlsx
+++ b/tests/02_mnist_cnn/runs.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmks/Dev/activation_functions/tests/02_mnist_cnn/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7290"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="23">
   <si>
     <t>opt</t>
   </si>
@@ -91,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,8 +134,24 @@
       <color rgb="FF333333"/>
       <name val="MathJax_Main"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,6 +161,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -144,19 +179,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Открывавшаяся гиперссылка" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -172,7 +212,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -210,14 +250,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -247,12 +287,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -282,7 +322,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -458,17 +498,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C43" sqref="A1:C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,273 +519,315 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="C3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="C8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="C9" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="C11" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="C12" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="C16" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="C18" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="C20" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="C21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="2"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="C22" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>2</v>
       </c>
       <c r="B23" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="C23" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="C26" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="C27" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="C29" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -756,7 +838,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -767,7 +849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -778,7 +860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -789,7 +871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -800,7 +882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -811,7 +893,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -822,442 +904,565 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>2</v>
       </c>
       <c r="B37" t="s">
         <v>14</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
       <c r="B38" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="2">
+        <v>3</v>
+      </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>5</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="2">
+        <v>3</v>
+      </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
       <c r="B40" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="2">
+        <v>3</v>
+      </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>7</v>
       </c>
       <c r="B41" t="s">
         <v>14</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="2">
+        <v>3</v>
+      </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
       <c r="B42" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="2">
+        <v>3</v>
+      </c>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>9</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="2">
+        <v>3</v>
+      </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="5">
+        <v>2</v>
+      </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="5">
+        <v>2</v>
+      </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="2">
-        <v>1</v>
+      <c r="C46" s="5">
+        <v>2</v>
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="5">
+        <v>2</v>
+      </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="5">
+        <v>2</v>
+      </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:14">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>8</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="2">
-        <v>1</v>
+      <c r="C49" s="5">
+        <v>2</v>
       </c>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:14">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="2">
-        <v>1</v>
+      <c r="C50" s="5">
+        <v>2</v>
       </c>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:14" ht="16.5">
+    <row r="51" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="2">
+        <v>3</v>
+      </c>
       <c r="D51" s="2"/>
       <c r="N51" s="3"/>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>4</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="4"/>
+      <c r="C52" s="4">
+        <v>3</v>
+      </c>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" spans="1:14">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>5</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="2">
+        <v>3</v>
+      </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>6</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" s="2">
+        <v>3</v>
+      </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>7</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="2">
+        <v>3</v>
+      </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:14">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>8</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="2">
+        <v>3</v>
+      </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:14">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>9</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="4"/>
+      <c r="C57" s="4">
+        <v>3</v>
+      </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" spans="1:14">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>2</v>
       </c>
       <c r="B58" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="C58" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>4</v>
       </c>
       <c r="B59" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="C59" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>5</v>
       </c>
       <c r="B60" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="C60" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>6</v>
       </c>
       <c r="B61" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="C61" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>7</v>
       </c>
       <c r="B62" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="C62" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>8</v>
       </c>
       <c r="B63" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="C63" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>9</v>
       </c>
       <c r="B64" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>2</v>
       </c>
       <c r="B65" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>4</v>
       </c>
       <c r="B66" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>5</v>
       </c>
       <c r="B67" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>6</v>
       </c>
       <c r="B68" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>8</v>
       </c>
       <c r="B70" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>9</v>
       </c>
       <c r="B71" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>2</v>
       </c>
       <c r="B72" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>4</v>
       </c>
       <c r="B73" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>5</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>6</v>
       </c>
       <c r="B75" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>7</v>
       </c>
       <c r="B76" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>8</v>
       </c>
       <c r="B77" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>9</v>
       </c>
       <c r="B78" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>2</v>
       </c>
       <c r="B79" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>4</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>5</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>6</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>7</v>
       </c>
       <c r="B83" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>8</v>
       </c>
       <c r="B84" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>9</v>
       </c>
       <c r="B85" t="s">
         <v>20</v>
+      </c>
+      <c r="C85" s="5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +1477,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1284,7 +1489,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
